--- a/020_Data regression prediction based on BP neural network - predicting new data/数据集.xlsx
+++ b/020_Data regression prediction based on BP neural network - predicting new data/数据集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Documents\MATLAB\Bilibili视频程序\021_基于BP神经网络的数据回归预测-预测新数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Desktop\暂时文件\博客存储\面包多\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3C526F-E231-4C06-A992-B32BB10E19AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA4B204-A171-4EB2-9547-3CAF1A1E54EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,35 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="10.9140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="34" width="9.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="16384" width="13.08203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -652,288 +630,288 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E2" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>768</v>
+        <v>904</v>
       </c>
       <c r="G2" s="1">
-        <v>902</v>
+        <v>680</v>
       </c>
       <c r="H2" s="1">
-        <v>28.03</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D3" s="1">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="E3" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
-        <v>735</v>
+        <v>843</v>
       </c>
       <c r="G3" s="1">
-        <v>836</v>
+        <v>746</v>
       </c>
       <c r="H3" s="1">
-        <v>31.37</v>
+        <v>41.14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>354</v>
+        <v>162</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="D4" s="1">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="E4" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
-        <v>959</v>
+        <v>840</v>
       </c>
       <c r="G4" s="1">
-        <v>691</v>
+        <v>743</v>
       </c>
       <c r="H4" s="1">
-        <v>33.909999999999997</v>
+        <v>41.81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>374</v>
+        <v>162</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D5" s="1">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E5" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1">
-        <v>1013</v>
+        <v>838</v>
       </c>
       <c r="G5" s="1">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="H5" s="1">
-        <v>32.44</v>
+        <v>42.08</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="E6" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="G6" s="1">
-        <v>720</v>
+        <v>658</v>
       </c>
       <c r="H6" s="1">
-        <v>34.049999999999997</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1">
-        <v>1002</v>
+        <v>860</v>
       </c>
       <c r="G7" s="1">
-        <v>684</v>
+        <v>829</v>
       </c>
       <c r="H7" s="1">
-        <v>28.29</v>
+        <v>25.21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="E8" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
-        <v>750</v>
+        <v>944</v>
       </c>
       <c r="G8" s="1">
-        <v>766</v>
+        <v>695</v>
       </c>
       <c r="H8" s="1">
-        <v>41.01</v>
+        <v>38.86</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>310</v>
+        <v>145</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="D9" s="1">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
-        <v>914</v>
+        <v>750</v>
       </c>
       <c r="G9" s="1">
-        <v>804</v>
+        <v>853</v>
       </c>
       <c r="H9" s="1">
-        <v>49.3</v>
+        <v>36.590000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>296</v>
+        <v>152</v>
       </c>
       <c r="B10" s="1">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="D10" s="1">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E10" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
-        <v>932</v>
+        <v>785</v>
       </c>
       <c r="G10" s="1">
-        <v>685</v>
+        <v>892</v>
       </c>
       <c r="H10" s="1">
-        <v>29.23</v>
+        <v>32.71</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D11" s="1">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1">
-        <v>959</v>
+        <v>895</v>
       </c>
       <c r="G11" s="1">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="H11" s="1">
-        <v>29.77</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>310</v>
+        <v>145</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D12" s="1">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>787</v>
+        <v>751</v>
       </c>
       <c r="G12" s="1">
-        <v>804</v>
+        <v>883</v>
       </c>
       <c r="H12" s="1">
-        <v>36.19</v>
+        <v>26.02</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -941,1403 +919,1403 @@
         <v>148</v>
       </c>
       <c r="B13" s="1">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D13" s="1">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E13" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1">
-        <v>972</v>
+        <v>768</v>
       </c>
       <c r="G13" s="1">
-        <v>757</v>
+        <v>902</v>
       </c>
       <c r="H13" s="1">
-        <v>18.52</v>
+        <v>28.03</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B14" s="1">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="D14" s="1">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="E14" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1">
-        <v>961</v>
+        <v>735</v>
       </c>
       <c r="G14" s="1">
-        <v>749</v>
+        <v>836</v>
       </c>
       <c r="H14" s="1">
-        <v>17.190000000000001</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>142</v>
+        <v>354</v>
       </c>
       <c r="B15" s="1">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="E15" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
-        <v>883</v>
+        <v>959</v>
       </c>
       <c r="G15" s="1">
-        <v>785</v>
+        <v>691</v>
       </c>
       <c r="H15" s="1">
-        <v>36.72</v>
+        <v>33.909999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>140</v>
+        <v>374</v>
       </c>
       <c r="B16" s="1">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E16" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1">
-        <v>871</v>
+        <v>1013</v>
       </c>
       <c r="G16" s="1">
-        <v>775</v>
+        <v>730</v>
       </c>
       <c r="H16" s="1">
-        <v>33.380000000000003</v>
+        <v>32.44</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="B17" s="1">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D17" s="1">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="E17" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
-        <v>783</v>
+        <v>953</v>
       </c>
       <c r="G17" s="1">
-        <v>686</v>
+        <v>720</v>
       </c>
       <c r="H17" s="1">
-        <v>42.08</v>
+        <v>34.049999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>295</v>
+        <v>153</v>
       </c>
       <c r="B18" s="1">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="D18" s="1">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E18" s="1">
         <v>6</v>
       </c>
       <c r="F18" s="1">
-        <v>871</v>
+        <v>1002</v>
       </c>
       <c r="G18" s="1">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="H18" s="1">
-        <v>39.4</v>
+        <v>28.29</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B19" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="1">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E19" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1">
-        <v>878</v>
+        <v>750</v>
       </c>
       <c r="G19" s="1">
-        <v>655</v>
+        <v>766</v>
       </c>
       <c r="H19" s="1">
-        <v>41.27</v>
+        <v>41.01</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D20" s="1">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="E20" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1">
-        <v>851</v>
+        <v>914</v>
       </c>
       <c r="G20" s="1">
-        <v>757</v>
+        <v>804</v>
       </c>
       <c r="H20" s="1">
-        <v>41.14</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="E21" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1">
-        <v>870</v>
+        <v>932</v>
       </c>
       <c r="G21" s="1">
-        <v>774</v>
+        <v>685</v>
       </c>
       <c r="H21" s="1">
-        <v>45.82</v>
+        <v>29.23</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="E22" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1">
-        <v>785</v>
+        <v>959</v>
       </c>
       <c r="G22" s="1">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="H22" s="1">
-        <v>43.95</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="D23" s="1">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E23" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1">
-        <v>824</v>
+        <v>787</v>
       </c>
       <c r="G23" s="1">
-        <v>757</v>
+        <v>804</v>
       </c>
       <c r="H23" s="1">
-        <v>52.65</v>
+        <v>36.19</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="B24" s="1">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="C24" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E24" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1">
-        <v>759</v>
+        <v>972</v>
       </c>
       <c r="G24" s="1">
-        <v>827</v>
+        <v>757</v>
       </c>
       <c r="H24" s="1">
-        <v>35.520000000000003</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B25" s="1">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C25" s="1">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="E25" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1">
-        <v>708</v>
+        <v>961</v>
       </c>
       <c r="G25" s="1">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="H25" s="1">
-        <v>34.450000000000003</v>
+        <v>17.190000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D26" s="1">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E26" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1">
-        <v>810</v>
+        <v>883</v>
       </c>
       <c r="G26" s="1">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="H26" s="1">
-        <v>43.54</v>
+        <v>36.72</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="B27" s="1">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C27" s="1">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="D27" s="1">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E27" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="G27" s="1">
-        <v>821</v>
+        <v>775</v>
       </c>
       <c r="H27" s="1">
-        <v>33.11</v>
+        <v>33.380000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="B28" s="1">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="D28" s="1">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="E28" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
-        <v>1023</v>
+        <v>783</v>
       </c>
       <c r="G28" s="1">
-        <v>729</v>
+        <v>686</v>
       </c>
       <c r="H28" s="1">
-        <v>18.260000000000002</v>
+        <v>42.08</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="D29" s="1">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="E29" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1">
-        <v>1035</v>
+        <v>871</v>
       </c>
       <c r="G29" s="1">
-        <v>706</v>
+        <v>650</v>
       </c>
       <c r="H29" s="1">
-        <v>34.99</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C30" s="1">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c r="D30" s="1">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E30" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F30" s="1">
-        <v>1022</v>
+        <v>878</v>
       </c>
       <c r="G30" s="1">
-        <v>698</v>
+        <v>655</v>
       </c>
       <c r="H30" s="1">
-        <v>33.78</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>145</v>
+        <v>314</v>
       </c>
       <c r="B31" s="1">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="D31" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E31" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F31" s="1">
-        <v>752</v>
+        <v>851</v>
       </c>
       <c r="G31" s="1">
-        <v>715</v>
+        <v>757</v>
       </c>
       <c r="H31" s="1">
-        <v>35.659999999999997</v>
+        <v>41.14</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>154</v>
+        <v>321</v>
       </c>
       <c r="B32" s="1">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D32" s="1">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="E32" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1">
-        <v>797</v>
+        <v>870</v>
       </c>
       <c r="G32" s="1">
-        <v>683</v>
+        <v>774</v>
       </c>
       <c r="H32" s="1">
-        <v>33.51</v>
+        <v>45.82</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>160</v>
+        <v>349</v>
       </c>
       <c r="B33" s="1">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D33" s="1">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="E33" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1">
-        <v>829</v>
+        <v>785</v>
       </c>
       <c r="G33" s="1">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="H33" s="1">
-        <v>33.51</v>
+        <v>43.95</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>291</v>
+        <v>366</v>
       </c>
       <c r="B34" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D34" s="1">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E34" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1">
-        <v>859</v>
+        <v>824</v>
       </c>
       <c r="G34" s="1">
-        <v>797</v>
+        <v>757</v>
       </c>
       <c r="H34" s="1">
-        <v>27.62</v>
+        <v>52.65</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B35" s="1">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D35" s="1">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E35" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F35" s="1">
-        <v>879</v>
+        <v>759</v>
       </c>
       <c r="G35" s="1">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="H35" s="1">
-        <v>30.97</v>
+        <v>35.520000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>318</v>
+        <v>137</v>
       </c>
       <c r="B36" s="1">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D36" s="1">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E36" s="1">
         <v>6</v>
       </c>
       <c r="F36" s="1">
-        <v>861</v>
+        <v>708</v>
       </c>
       <c r="G36" s="1">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="H36" s="1">
-        <v>31.77</v>
+        <v>34.450000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B37" s="1">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D37" s="1">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E37" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F37" s="1">
-        <v>883</v>
+        <v>810</v>
       </c>
       <c r="G37" s="1">
-        <v>679</v>
+        <v>790</v>
       </c>
       <c r="H37" s="1">
-        <v>37.39</v>
+        <v>43.54</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B38" s="1">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D38" s="1">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E38" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" s="1">
-        <v>904</v>
+        <v>835</v>
       </c>
       <c r="G38" s="1">
-        <v>696</v>
+        <v>821</v>
       </c>
       <c r="H38" s="1">
-        <v>43.01</v>
+        <v>33.11</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>332</v>
+        <v>165</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C39" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E39" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1">
-        <v>900</v>
+        <v>1023</v>
       </c>
       <c r="G39" s="1">
-        <v>806</v>
+        <v>729</v>
       </c>
       <c r="H39" s="1">
-        <v>58.53</v>
+        <v>18.260000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>326</v>
+        <v>158</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
       </c>
       <c r="C40" s="1">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="D40" s="1">
         <v>174</v>
       </c>
       <c r="E40" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1">
-        <v>884</v>
+        <v>1035</v>
       </c>
       <c r="G40" s="1">
-        <v>792</v>
+        <v>706</v>
       </c>
       <c r="H40" s="1">
-        <v>52.65</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>320</v>
+        <v>156</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="D41" s="1">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E41" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F41" s="1">
-        <v>866</v>
+        <v>1022</v>
       </c>
       <c r="G41" s="1">
-        <v>776</v>
+        <v>698</v>
       </c>
       <c r="H41" s="1">
-        <v>45.69</v>
+        <v>33.78</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>342</v>
+        <v>145</v>
       </c>
       <c r="B42" s="1">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D42" s="1">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E42" s="1">
         <v>11</v>
       </c>
       <c r="F42" s="1">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="G42" s="1">
-        <v>747</v>
+        <v>715</v>
       </c>
       <c r="H42" s="1">
-        <v>32.04</v>
+        <v>35.659999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>356</v>
+        <v>154</v>
       </c>
       <c r="B43" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="D43" s="1">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="E43" s="1">
         <v>11</v>
       </c>
       <c r="F43" s="1">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="G43" s="1">
-        <v>778</v>
+        <v>683</v>
       </c>
       <c r="H43" s="1">
-        <v>36.46</v>
+        <v>33.51</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>309</v>
+        <v>160</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C44" s="1">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D44" s="1">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E44" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" s="1">
-        <v>912</v>
+        <v>829</v>
       </c>
       <c r="G44" s="1">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="H44" s="1">
-        <v>38.590000000000003</v>
+        <v>33.51</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="B45" s="1">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C45" s="1">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="E45" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F45" s="1">
-        <v>951</v>
+        <v>859</v>
       </c>
       <c r="G45" s="1">
-        <v>709</v>
+        <v>797</v>
       </c>
       <c r="H45" s="1">
-        <v>45.42</v>
+        <v>27.62</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="B46" s="1">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E46" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F46" s="1">
-        <v>821</v>
+        <v>879</v>
       </c>
       <c r="G46" s="1">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="H46" s="1">
-        <v>19.190000000000001</v>
+        <v>30.97</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B47" s="1">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="E47" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F47" s="1">
-        <v>904</v>
+        <v>861</v>
       </c>
       <c r="G47" s="1">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="H47" s="1">
-        <v>31.5</v>
+        <v>31.77</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="B48" s="1">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="D48" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E48" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F48" s="1">
-        <v>846</v>
+        <v>883</v>
       </c>
       <c r="G48" s="1">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="H48" s="1">
-        <v>29.63</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="B49" s="1">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="D49" s="1">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="E49" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F49" s="1">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="G49" s="1">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="H49" s="1">
-        <v>26.42</v>
+        <v>43.01</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="B50" s="1">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D50" s="1">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="E50" s="1">
         <v>6</v>
       </c>
       <c r="F50" s="1">
-        <v>869</v>
+        <v>900</v>
       </c>
       <c r="G50" s="1">
-        <v>656</v>
+        <v>806</v>
       </c>
       <c r="H50" s="1">
-        <v>29.5</v>
+        <v>58.53</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
       </c>
       <c r="C51" s="1">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="D51" s="1">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="E51" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F51" s="1">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="G51" s="1">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="H51" s="1">
-        <v>32.71</v>
+        <v>52.65</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
       </c>
       <c r="C52" s="1">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="D52" s="1">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E52" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F52" s="1">
-        <v>908</v>
+        <v>866</v>
       </c>
       <c r="G52" s="1">
-        <v>829</v>
+        <v>776</v>
       </c>
       <c r="H52" s="1">
-        <v>39.93</v>
+        <v>45.69</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="B53" s="1">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E53" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" s="1">
-        <v>881</v>
+        <v>770</v>
       </c>
       <c r="G53" s="1">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H53" s="1">
-        <v>28.29</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>291</v>
+        <v>356</v>
       </c>
       <c r="B54" s="1">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="E54" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F54" s="1">
-        <v>857</v>
+        <v>801</v>
       </c>
       <c r="G54" s="1">
-        <v>725</v>
+        <v>778</v>
       </c>
       <c r="H54" s="1">
-        <v>30.43</v>
+        <v>36.46</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="B55" s="1">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="D55" s="1">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="E55" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F55" s="1">
-        <v>833</v>
+        <v>912</v>
       </c>
       <c r="G55" s="1">
-        <v>790</v>
+        <v>680</v>
       </c>
       <c r="H55" s="1">
-        <v>37.39</v>
+        <v>38.590000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>159</v>
+        <v>322</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
       </c>
       <c r="C56" s="1">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="D56" s="1">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="E56" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1">
-        <v>1041</v>
+        <v>951</v>
       </c>
       <c r="G56" s="1">
-        <v>683</v>
+        <v>709</v>
       </c>
       <c r="H56" s="1">
-        <v>35.39</v>
+        <v>45.42</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="C57" s="1">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="E57" s="1">
         <v>12</v>
       </c>
       <c r="F57" s="1">
-        <v>1049</v>
+        <v>821</v>
       </c>
       <c r="G57" s="1">
-        <v>688</v>
+        <v>818</v>
       </c>
       <c r="H57" s="1">
-        <v>37.659999999999997</v>
+        <v>19.190000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C58" s="1">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E58" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F58" s="1">
-        <v>859</v>
+        <v>904</v>
       </c>
       <c r="G58" s="1">
-        <v>827</v>
+        <v>765</v>
       </c>
       <c r="H58" s="1">
-        <v>40.340000000000003</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B59" s="1">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C59" s="1">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E59" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F59" s="1">
-        <v>721</v>
+        <v>846</v>
       </c>
       <c r="G59" s="1">
-        <v>723</v>
+        <v>758</v>
       </c>
       <c r="H59" s="1">
-        <v>46.36</v>
+        <v>29.63</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="B60" s="1">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="D60" s="1">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E60" s="1">
         <v>6</v>
       </c>
       <c r="F60" s="1">
-        <v>756</v>
+        <v>891</v>
       </c>
       <c r="G60" s="1">
-        <v>787</v>
+        <v>672</v>
       </c>
       <c r="H60" s="1">
-        <v>31.9</v>
+        <v>26.42</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>276</v>
+        <v>140</v>
       </c>
       <c r="B61" s="1">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C61" s="1">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="D61" s="1">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="E61" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F61" s="1">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G61" s="1">
-        <v>768</v>
+        <v>656</v>
       </c>
       <c r="H61" s="1">
-        <v>44.08</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="B62" s="1">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D62" s="1">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E62" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" s="1">
-        <v>794</v>
+        <v>875</v>
       </c>
       <c r="G62" s="1">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="H62" s="1">
-        <v>28.16</v>
+        <v>32.71</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="B63" s="1">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="C63" s="1">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="D63" s="1">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E63" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F63" s="1">
-        <v>818</v>
+        <v>908</v>
       </c>
       <c r="G63" s="1">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="H63" s="1">
-        <v>29.77</v>
+        <v>39.93</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B64" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C64" s="1">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E64" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1">
-        <v>747</v>
+        <v>881</v>
       </c>
       <c r="G64" s="1">
-        <v>778</v>
+        <v>745</v>
       </c>
       <c r="H64" s="1">
-        <v>41.27</v>
+        <v>28.29</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="B65" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C65" s="1">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="E65" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F65" s="1">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="G65" s="1">
-        <v>765</v>
+        <v>725</v>
       </c>
       <c r="H65" s="1">
-        <v>27.89</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="B66" s="1">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C66" s="1">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D66" s="1">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E66" s="1">
         <v>6</v>
       </c>
       <c r="F66" s="1">
-        <v>892</v>
+        <v>833</v>
       </c>
       <c r="G66" s="1">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="H66" s="1">
-        <v>28.7</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2348,697 +2326,983 @@
         <v>0</v>
       </c>
       <c r="C67" s="1">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="D67" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E67" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" s="1">
-        <v>990</v>
+        <v>1041</v>
       </c>
       <c r="G67" s="1">
-        <v>789</v>
+        <v>683</v>
       </c>
       <c r="H67" s="1">
-        <v>32.57</v>
+        <v>35.39</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="B68" s="1">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D68" s="1">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="E68" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F68" s="1">
-        <v>864</v>
+        <v>1049</v>
       </c>
       <c r="G68" s="1">
-        <v>761</v>
+        <v>688</v>
       </c>
       <c r="H68" s="1">
-        <v>34.18</v>
+        <v>37.659999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B69" s="1">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>198.1</v>
+        <v>260</v>
       </c>
       <c r="D69" s="1">
-        <v>174.9</v>
+        <v>183</v>
       </c>
       <c r="E69" s="1">
-        <v>4.4000000000000004</v>
+        <v>13</v>
       </c>
       <c r="F69" s="1">
-        <v>1049.9000000000001</v>
+        <v>859</v>
       </c>
       <c r="G69" s="1">
-        <v>780.5</v>
+        <v>827</v>
       </c>
       <c r="H69" s="1">
-        <v>30.83</v>
+        <v>40.340000000000003</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>141.1</v>
+        <v>320</v>
       </c>
       <c r="B70" s="1">
-        <v>0.6</v>
+        <v>127</v>
       </c>
       <c r="C70" s="1">
-        <v>209.5</v>
+        <v>164</v>
       </c>
       <c r="D70" s="1">
-        <v>188.8</v>
+        <v>211</v>
       </c>
       <c r="E70" s="1">
-        <v>4.5999999999999996</v>
+        <v>6</v>
       </c>
       <c r="F70" s="1">
-        <v>996.1</v>
+        <v>721</v>
       </c>
       <c r="G70" s="1">
-        <v>789.2</v>
+        <v>723</v>
       </c>
       <c r="H70" s="1">
-        <v>30.43</v>
+        <v>46.36</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>140.1</v>
+        <v>336</v>
       </c>
       <c r="B71" s="1">
-        <v>4.2</v>
+        <v>134</v>
       </c>
       <c r="C71" s="1">
-        <v>215.9</v>
+        <v>0</v>
       </c>
       <c r="D71" s="1">
-        <v>193.9</v>
+        <v>222</v>
       </c>
       <c r="E71" s="1">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="F71" s="1">
-        <v>1049.5</v>
+        <v>756</v>
       </c>
       <c r="G71" s="1">
-        <v>710.1</v>
+        <v>787</v>
       </c>
       <c r="H71" s="1">
-        <v>26.42</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>140.1</v>
+        <v>276</v>
       </c>
       <c r="B72" s="1">
-        <v>11.8</v>
+        <v>90</v>
       </c>
       <c r="C72" s="1">
-        <v>226.1</v>
+        <v>116</v>
       </c>
       <c r="D72" s="1">
-        <v>207.8</v>
+        <v>180</v>
       </c>
       <c r="E72" s="1">
-        <v>4.9000000000000004</v>
+        <v>9</v>
       </c>
       <c r="F72" s="1">
-        <v>1020.9</v>
+        <v>870</v>
       </c>
       <c r="G72" s="1">
-        <v>683.8</v>
+        <v>768</v>
       </c>
       <c r="H72" s="1">
-        <v>26.28</v>
+        <v>44.08</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>160.19999999999999</v>
+        <v>313</v>
       </c>
       <c r="B73" s="1">
-        <v>0.3</v>
+        <v>112</v>
       </c>
       <c r="C73" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D73" s="1">
-        <v>233.5</v>
+        <v>220</v>
       </c>
       <c r="E73" s="1">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="F73" s="1">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="G73" s="1">
-        <v>841.1</v>
+        <v>789</v>
       </c>
       <c r="H73" s="1">
-        <v>36.19</v>
+        <v>28.16</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>140.19999999999999</v>
+        <v>322</v>
       </c>
       <c r="B74" s="1">
-        <v>30.5</v>
+        <v>116</v>
       </c>
       <c r="C74" s="1">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>169.4</v>
+        <v>196</v>
       </c>
       <c r="E74" s="1">
-        <v>5.3</v>
+        <v>10</v>
       </c>
       <c r="F74" s="1">
-        <v>1028.4000000000001</v>
+        <v>818</v>
       </c>
       <c r="G74" s="1">
-        <v>742.7</v>
+        <v>813</v>
       </c>
       <c r="H74" s="1">
-        <v>36.32</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>140.19999999999999</v>
+        <v>294</v>
       </c>
       <c r="B75" s="1">
-        <v>44.8</v>
+        <v>106</v>
       </c>
       <c r="C75" s="1">
-        <v>234.9</v>
+        <v>136</v>
       </c>
       <c r="D75" s="1">
-        <v>171.3</v>
+        <v>207</v>
       </c>
       <c r="E75" s="1">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="F75" s="1">
-        <v>1047.5999999999999</v>
+        <v>747</v>
       </c>
       <c r="G75" s="1">
-        <v>704</v>
+        <v>778</v>
       </c>
       <c r="H75" s="1">
-        <v>33.78</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>140.5</v>
+        <v>146</v>
       </c>
       <c r="B76" s="1">
-        <v>61.1</v>
+        <v>106</v>
       </c>
       <c r="C76" s="1">
-        <v>238.9</v>
+        <v>137</v>
       </c>
       <c r="D76" s="1">
-        <v>182.5</v>
+        <v>209</v>
       </c>
       <c r="E76" s="1">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F76" s="1">
-        <v>1017.7</v>
+        <v>875</v>
       </c>
       <c r="G76" s="1">
-        <v>681.4</v>
+        <v>765</v>
       </c>
       <c r="H76" s="1">
-        <v>30.97</v>
+        <v>27.89</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>143.30000000000001</v>
+        <v>149</v>
       </c>
       <c r="B77" s="1">
-        <v>91.8</v>
+        <v>109</v>
       </c>
       <c r="C77" s="1">
-        <v>239.8</v>
+        <v>139</v>
       </c>
       <c r="D77" s="1">
-        <v>200.8</v>
+        <v>193</v>
       </c>
       <c r="E77" s="1">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="F77" s="1">
-        <v>964.8</v>
+        <v>892</v>
       </c>
       <c r="G77" s="1">
-        <v>647.1</v>
+        <v>780</v>
       </c>
       <c r="H77" s="1">
-        <v>27.09</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>194.3</v>
+        <v>159</v>
       </c>
       <c r="B78" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="D78" s="1">
-        <v>234.2</v>
+        <v>176</v>
       </c>
       <c r="E78" s="1">
-        <v>8.9</v>
+        <v>11</v>
       </c>
       <c r="F78" s="1">
-        <v>780.6</v>
+        <v>990</v>
       </c>
       <c r="G78" s="1">
-        <v>811.3</v>
+        <v>789</v>
       </c>
       <c r="H78" s="1">
-        <v>38.46</v>
+        <v>32.57</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>150.4</v>
+        <v>261</v>
       </c>
       <c r="B79" s="1">
-        <v>110.9</v>
+        <v>78</v>
       </c>
       <c r="C79" s="1">
-        <v>239.7</v>
+        <v>100</v>
       </c>
       <c r="D79" s="1">
-        <v>168.1</v>
+        <v>201</v>
       </c>
       <c r="E79" s="1">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="F79" s="1">
-        <v>1000.2</v>
+        <v>864</v>
       </c>
       <c r="G79" s="1">
-        <v>667.2</v>
+        <v>761</v>
       </c>
       <c r="H79" s="1">
-        <v>37.92</v>
+        <v>34.18</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>150.30000000000001</v>
+        <v>140</v>
       </c>
       <c r="B80" s="1">
-        <v>111.4</v>
+        <v>1.4</v>
       </c>
       <c r="C80" s="1">
-        <v>238.8</v>
+        <v>198.1</v>
       </c>
       <c r="D80" s="1">
-        <v>167.3</v>
+        <v>174.9</v>
       </c>
       <c r="E80" s="1">
-        <v>6.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F80" s="1">
-        <v>999.5</v>
+        <v>1049.9000000000001</v>
       </c>
       <c r="G80" s="1">
-        <v>670.5</v>
+        <v>780.5</v>
       </c>
       <c r="H80" s="1">
-        <v>38.19</v>
+        <v>30.83</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>155.4</v>
+        <v>141.1</v>
       </c>
       <c r="B81" s="1">
-        <v>122.1</v>
+        <v>0.6</v>
       </c>
       <c r="C81" s="1">
-        <v>240</v>
+        <v>209.5</v>
       </c>
       <c r="D81" s="1">
-        <v>179.9</v>
+        <v>188.8</v>
       </c>
       <c r="E81" s="1">
-        <v>6.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F81" s="1">
-        <v>966.8</v>
+        <v>996.1</v>
       </c>
       <c r="G81" s="1">
-        <v>652.5</v>
+        <v>789.2</v>
       </c>
       <c r="H81" s="1">
-        <v>35.520000000000003</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>165.3</v>
+        <v>140.1</v>
       </c>
       <c r="B82" s="1">
-        <v>143.19999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="C82" s="1">
-        <v>238.3</v>
+        <v>215.9</v>
       </c>
       <c r="D82" s="1">
-        <v>200.4</v>
+        <v>193.9</v>
       </c>
       <c r="E82" s="1">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="F82" s="1">
-        <v>883.2</v>
+        <v>1049.5</v>
       </c>
       <c r="G82" s="1">
-        <v>652.6</v>
+        <v>710.1</v>
       </c>
       <c r="H82" s="1">
-        <v>32.840000000000003</v>
+        <v>26.42</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>303.8</v>
+        <v>140.1</v>
       </c>
       <c r="B83" s="1">
-        <v>0.2</v>
+        <v>11.8</v>
       </c>
       <c r="C83" s="1">
-        <v>239.8</v>
+        <v>226.1</v>
       </c>
       <c r="D83" s="1">
-        <v>236.4</v>
+        <v>207.8</v>
       </c>
       <c r="E83" s="1">
-        <v>8.3000000000000007</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F83" s="1">
-        <v>780.1</v>
+        <v>1020.9</v>
       </c>
       <c r="G83" s="1">
-        <v>715.3</v>
+        <v>683.8</v>
       </c>
       <c r="H83" s="1">
-        <v>44.48</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>172</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="B84" s="1">
-        <v>162.1</v>
+        <v>0.3</v>
       </c>
       <c r="C84" s="1">
-        <v>238.5</v>
+        <v>240</v>
       </c>
       <c r="D84" s="1">
-        <v>166</v>
+        <v>233.5</v>
       </c>
       <c r="E84" s="1">
-        <v>7.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F84" s="1">
-        <v>953.3</v>
+        <v>781</v>
       </c>
       <c r="G84" s="1">
-        <v>641.4</v>
+        <v>841.1</v>
       </c>
       <c r="H84" s="1">
-        <v>41.54</v>
+        <v>36.19</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>172.8</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="B85" s="1">
-        <v>158.30000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="C85" s="1">
-        <v>239.5</v>
+        <v>239</v>
       </c>
       <c r="D85" s="1">
-        <v>166.4</v>
+        <v>169.4</v>
       </c>
       <c r="E85" s="1">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="F85" s="1">
-        <v>952.6</v>
+        <v>1028.4000000000001</v>
       </c>
       <c r="G85" s="1">
-        <v>644.1</v>
+        <v>742.7</v>
       </c>
       <c r="H85" s="1">
-        <v>41.81</v>
+        <v>36.32</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>184.3</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="B86" s="1">
-        <v>153.4</v>
+        <v>44.8</v>
       </c>
       <c r="C86" s="1">
-        <v>239.2</v>
+        <v>234.9</v>
       </c>
       <c r="D86" s="1">
-        <v>179</v>
+        <v>171.3</v>
       </c>
       <c r="E86" s="1">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="F86" s="1">
-        <v>920.2</v>
+        <v>1047.5999999999999</v>
       </c>
       <c r="G86" s="1">
-        <v>640.9</v>
+        <v>704</v>
       </c>
       <c r="H86" s="1">
-        <v>41.01</v>
+        <v>33.78</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>215.6</v>
+        <v>140.5</v>
       </c>
       <c r="B87" s="1">
-        <v>112.9</v>
+        <v>61.1</v>
       </c>
       <c r="C87" s="1">
-        <v>239</v>
+        <v>238.9</v>
       </c>
       <c r="D87" s="1">
-        <v>198.7</v>
+        <v>182.5</v>
       </c>
       <c r="E87" s="1">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="F87" s="1">
-        <v>884</v>
+        <v>1017.7</v>
       </c>
       <c r="G87" s="1">
-        <v>649.1</v>
+        <v>681.4</v>
       </c>
       <c r="H87" s="1">
-        <v>39.130000000000003</v>
+        <v>30.97</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>295.3</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="B88" s="1">
-        <v>0</v>
+        <v>91.8</v>
       </c>
       <c r="C88" s="1">
-        <v>239.9</v>
+        <v>239.8</v>
       </c>
       <c r="D88" s="1">
-        <v>236.2</v>
+        <v>200.8</v>
       </c>
       <c r="E88" s="1">
-        <v>8.3000000000000007</v>
+        <v>6.2</v>
       </c>
       <c r="F88" s="1">
-        <v>780.3</v>
+        <v>964.8</v>
       </c>
       <c r="G88" s="1">
-        <v>722.9</v>
+        <v>647.1</v>
       </c>
       <c r="H88" s="1">
-        <v>44.08</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>248.3</v>
+        <v>194.3</v>
       </c>
       <c r="B89" s="1">
-        <v>101</v>
+        <v>0.3</v>
       </c>
       <c r="C89" s="1">
-        <v>239.1</v>
+        <v>240</v>
       </c>
       <c r="D89" s="1">
-        <v>168.9</v>
+        <v>234.2</v>
       </c>
       <c r="E89" s="1">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
       <c r="F89" s="1">
-        <v>954.2</v>
+        <v>780.6</v>
       </c>
       <c r="G89" s="1">
-        <v>640.6</v>
+        <v>811.3</v>
       </c>
       <c r="H89" s="1">
-        <v>49.97</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>248</v>
+        <v>150.4</v>
       </c>
       <c r="B90" s="1">
-        <v>101</v>
+        <v>110.9</v>
       </c>
       <c r="C90" s="1">
-        <v>239.9</v>
+        <v>239.7</v>
       </c>
       <c r="D90" s="1">
-        <v>169.1</v>
+        <v>168.1</v>
       </c>
       <c r="E90" s="1">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="F90" s="1">
-        <v>949.9</v>
+        <v>1000.2</v>
       </c>
       <c r="G90" s="1">
-        <v>644.1</v>
+        <v>667.2</v>
       </c>
       <c r="H90" s="1">
-        <v>50.23</v>
+        <v>37.92</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>258.8</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="B91" s="1">
-        <v>88</v>
+        <v>111.4</v>
       </c>
       <c r="C91" s="1">
-        <v>239.6</v>
+        <v>238.8</v>
       </c>
       <c r="D91" s="1">
-        <v>175.3</v>
+        <v>167.3</v>
       </c>
       <c r="E91" s="1">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="F91" s="1">
-        <v>938.9</v>
+        <v>999.5</v>
       </c>
       <c r="G91" s="1">
-        <v>646</v>
+        <v>670.5</v>
       </c>
       <c r="H91" s="1">
-        <v>50.5</v>
+        <v>38.19</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>297.10000000000002</v>
+        <v>155.4</v>
       </c>
       <c r="B92" s="1">
-        <v>40.9</v>
+        <v>122.1</v>
       </c>
       <c r="C92" s="1">
-        <v>239.9</v>
+        <v>240</v>
       </c>
       <c r="D92" s="1">
-        <v>194</v>
+        <v>179.9</v>
       </c>
       <c r="E92" s="1">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="F92" s="1">
-        <v>908.9</v>
+        <v>966.8</v>
       </c>
       <c r="G92" s="1">
-        <v>651.79999999999995</v>
+        <v>652.5</v>
       </c>
       <c r="H92" s="1">
-        <v>49.17</v>
+        <v>35.520000000000003</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
+        <v>165.3</v>
+      </c>
+      <c r="B93" s="1">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="C93" s="1">
+        <v>238.3</v>
+      </c>
+      <c r="D93" s="1">
+        <v>200.4</v>
+      </c>
+      <c r="E93" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>883.2</v>
+      </c>
+      <c r="G93" s="1">
+        <v>652.6</v>
+      </c>
+      <c r="H93" s="1">
+        <v>32.840000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>303.8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C94" s="1">
+        <v>239.8</v>
+      </c>
+      <c r="D94" s="1">
+        <v>236.4</v>
+      </c>
+      <c r="E94" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F94" s="1">
+        <v>780.1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>715.3</v>
+      </c>
+      <c r="H94" s="1">
+        <v>44.48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>172</v>
+      </c>
+      <c r="B95" s="1">
+        <v>162.1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>238.5</v>
+      </c>
+      <c r="D95" s="1">
+        <v>166</v>
+      </c>
+      <c r="E95" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F95" s="1">
+        <v>953.3</v>
+      </c>
+      <c r="G95" s="1">
+        <v>641.4</v>
+      </c>
+      <c r="H95" s="1">
+        <v>41.54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>172.8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="C96" s="1">
+        <v>239.5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>166.4</v>
+      </c>
+      <c r="E96" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F96" s="1">
+        <v>952.6</v>
+      </c>
+      <c r="G96" s="1">
+        <v>644.1</v>
+      </c>
+      <c r="H96" s="1">
+        <v>41.81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>184.3</v>
+      </c>
+      <c r="B97" s="1">
+        <v>153.4</v>
+      </c>
+      <c r="C97" s="1">
+        <v>239.2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>179</v>
+      </c>
+      <c r="E97" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F97" s="1">
+        <v>920.2</v>
+      </c>
+      <c r="G97" s="1">
+        <v>640.9</v>
+      </c>
+      <c r="H97" s="1">
+        <v>41.01</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>215.6</v>
+      </c>
+      <c r="B98" s="1">
+        <v>112.9</v>
+      </c>
+      <c r="C98" s="1">
+        <v>239</v>
+      </c>
+      <c r="D98" s="1">
+        <v>198.7</v>
+      </c>
+      <c r="E98" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F98" s="1">
+        <v>884</v>
+      </c>
+      <c r="G98" s="1">
+        <v>649.1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>39.130000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>295.3</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>239.9</v>
+      </c>
+      <c r="D99" s="1">
+        <v>236.2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F99" s="1">
+        <v>780.3</v>
+      </c>
+      <c r="G99" s="1">
+        <v>722.9</v>
+      </c>
+      <c r="H99" s="1">
+        <v>44.08</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>248.3</v>
+      </c>
+      <c r="B100" s="1">
+        <v>101</v>
+      </c>
+      <c r="C100" s="1">
+        <v>239.1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>168.9</v>
+      </c>
+      <c r="E100" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="F100" s="1">
+        <v>954.2</v>
+      </c>
+      <c r="G100" s="1">
+        <v>640.6</v>
+      </c>
+      <c r="H100" s="1">
+        <v>49.97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>248</v>
+      </c>
+      <c r="B101" s="1">
+        <v>101</v>
+      </c>
+      <c r="C101" s="1">
+        <v>239.9</v>
+      </c>
+      <c r="D101" s="1">
+        <v>169.1</v>
+      </c>
+      <c r="E101" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="F101" s="1">
+        <v>949.9</v>
+      </c>
+      <c r="G101" s="1">
+        <v>644.1</v>
+      </c>
+      <c r="H101" s="1">
+        <v>50.23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>258.8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>88</v>
+      </c>
+      <c r="C102" s="1">
+        <v>239.6</v>
+      </c>
+      <c r="D102" s="1">
+        <v>175.3</v>
+      </c>
+      <c r="E102" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="F102" s="1">
+        <v>938.9</v>
+      </c>
+      <c r="G102" s="1">
+        <v>646</v>
+      </c>
+      <c r="H102" s="1">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>297.10000000000002</v>
+      </c>
+      <c r="B103" s="1">
+        <v>40.9</v>
+      </c>
+      <c r="C103" s="1">
+        <v>239.9</v>
+      </c>
+      <c r="D103" s="1">
+        <v>194</v>
+      </c>
+      <c r="E103" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F103" s="1">
+        <v>908.9</v>
+      </c>
+      <c r="G103" s="1">
+        <v>651.79999999999995</v>
+      </c>
+      <c r="H103" s="1">
+        <v>49.17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
         <v>348.7</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B104" s="1">
         <v>0.1</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C104" s="1">
         <v>223.1</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D104" s="1">
         <v>208.5</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E104" s="1">
         <v>9.6</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F104" s="1">
         <v>786.2</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G104" s="1">
         <v>758.1</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H104" s="1">
         <v>48.77</v>
       </c>
     </row>
